--- a/data/Yield.xlsx
+++ b/data/Yield.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4FA26A-D4F7-4443-8C75-268ADA32ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{8B4FA26A-D4F7-4443-8C75-268ADA32ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D96A735-6DE6-4ADC-858B-C27C722E8E8D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4378E4F5-4D9E-4DF0-A2EC-28E161754BEC}"/>
+    <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{4378E4F5-4D9E-4DF0-A2EC-28E161754BEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Produccion" sheetId="1" r:id="rId1"/>
+    <sheet name="Yield" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,34 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="13">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>ID Parcela</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repeticion</t>
-  </si>
-  <si>
-    <t>Sup. Segada (m2)</t>
-  </si>
-  <si>
-    <t>Peso (g)</t>
-  </si>
-  <si>
-    <t>Humedad (%)</t>
-  </si>
-  <si>
-    <t>Densidad (Kg/Hl)</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>FE</t>
   </si>
@@ -76,12 +49,54 @@
   <si>
     <t>FO</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Area_m2</t>
+  </si>
+  <si>
+    <t>Weight_g</t>
+  </si>
+  <si>
+    <t>Weight_kg/ha</t>
+  </si>
+  <si>
+    <t>Yield_kg/ha_HR14</t>
+  </si>
+  <si>
+    <t>Weight_reduction</t>
+  </si>
+  <si>
+    <t>Weight_reduction_prop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +110,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,16 +144,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -167,18 +216,93 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -227,12 +351,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -281,12 +399,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -335,282 +447,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -674,17 +510,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEDB29B-7880-479C-B5C8-821ED7E21F63}" name="Tabla25" displayName="Tabla25" ref="A1:I81" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F4F9AD34-2BD1-4230-A1B9-807DA127C678}" name="Columna1" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{0D29DA5C-6A87-4734-B044-FA9437B84747}" name="Columna2" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{D97E7405-7B38-44FA-B9C3-73BF7396C810}" name="Columna3" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B1967649-6994-481B-A304-9F8F097F3A38}" name="Columna4" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{89AD42B2-6B88-46F1-AB15-51ED923EAAF2}" name="Columna5" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C5755088-DA07-4DEC-89D7-7C30F8CE16AD}" name="Columna6" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{8DE7F511-84B7-4EB5-BE31-FB6F570F165A}" name="Columna7" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1573BD29-F3C8-4824-AF01-3B3473B33C0A}" name="Columna8" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3883EE77-DFF2-429D-BB67-CFA3BB8D147F}" name="Columna9" headerRowDxfId="1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBEDB29B-7880-479C-B5C8-821ED7E21F63}" name="Tabla25" displayName="Tabla25" ref="A1:M81" totalsRowShown="0" headerRowDxfId="6" dataDxfId="14">
+  <autoFilter ref="A1:M81" xr:uid="{DBEDB29B-7880-479C-B5C8-821ED7E21F63}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F4F9AD34-2BD1-4230-A1B9-807DA127C678}" name="Date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{0D29DA5C-6A87-4734-B044-FA9437B84747}" name="Field" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D97E7405-7B38-44FA-B9C3-73BF7396C810}" name="Treatment" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B1967649-6994-481B-A304-9F8F097F3A38}" name="Repeat" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{89AD42B2-6B88-46F1-AB15-51ED923EAAF2}" name="Area_m2" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{C5755088-DA07-4DEC-89D7-7C30F8CE16AD}" name="Weight_g" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8DE7F511-84B7-4EB5-BE31-FB6F570F165A}" name="Humidity" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{1573BD29-F3C8-4824-AF01-3B3473B33C0A}" name="Density" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{A73B6165-6ED4-4EBE-8F42-9B65F03EC49C}" name="Weight_kg/ha" dataDxfId="5">
+      <calculatedColumnFormula>Tabla25[[#This Row],[Weight_g]]*10000/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{3C40A40F-F087-4377-B13E-371FD648DF06}" name="Weight_reduction_prop" dataDxfId="3">
+      <calculatedColumnFormula>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{DCD40F4E-7530-4353-BF5D-EB0A9C93E003}" name="Weight_reduction" dataDxfId="2">
+      <calculatedColumnFormula>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{499B7B4E-0029-46A3-945D-24DECC6672C5}" name="Yield_kg/ha_HR14" dataDxfId="0">
+      <calculatedColumnFormula>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3883EE77-DFF2-429D-BB67-CFA3BB8D147F}" name="Observations" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -987,53 +836,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDCDD43-5B98-4890-89DC-E86A0065FF7F}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78:F81"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="13.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" style="5" customWidth="1"/>
+    <col min="11" max="12" width="20" style="3" customWidth="1"/>
+    <col min="13" max="13" width="48.08984375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45918</v>
       </c>
@@ -1041,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1058,8 +926,24 @@
       <c r="H2" s="1">
         <v>42.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8259</v>
+      </c>
+      <c r="J2" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-5.8105752469495307E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-4.7989540964556179</v>
+      </c>
+      <c r="L2" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8263.7989540964554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45918</v>
       </c>
@@ -1067,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1084,8 +968,24 @@
       <c r="H3" s="1">
         <v>43.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8215</v>
+      </c>
+      <c r="J3" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>0.71436936409415552</v>
+      </c>
+      <c r="K3" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>58.685443260334878</v>
+      </c>
+      <c r="L3" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8156.314556739665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45918</v>
       </c>
@@ -1093,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -1110,8 +1010,24 @@
       <c r="H4" s="1">
         <v>43.79</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9283</v>
+      </c>
+      <c r="J4" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.6620508535275165</v>
+      </c>
+      <c r="K4" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>247.11818073295933</v>
+      </c>
+      <c r="L4" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9035.8818192670406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45918</v>
       </c>
@@ -1119,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -1136,8 +1052,24 @@
       <c r="H5" s="1">
         <v>43.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8641</v>
+      </c>
+      <c r="J5" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.28985507246376813</v>
+      </c>
+      <c r="K5" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-25.046376811594204</v>
+      </c>
+      <c r="L5" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8666.0463768115951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45918</v>
       </c>
@@ -1145,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1162,8 +1094,24 @@
       <c r="H6" s="1">
         <v>41.78</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7619</v>
+      </c>
+      <c r="J6" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-2.3614895549500456</v>
+      </c>
+      <c r="K6" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-179.92188919164397</v>
+      </c>
+      <c r="L6" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7798.9218891916444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45918</v>
       </c>
@@ -1171,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1188,8 +1136,24 @@
       <c r="H7" s="1">
         <v>41.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8568</v>
+      </c>
+      <c r="J7" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.784749611569258</v>
+      </c>
+      <c r="K7" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>238.59734671925401</v>
+      </c>
+      <c r="L7" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8329.4026532807457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45918</v>
       </c>
@@ -1197,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -1214,8 +1178,24 @@
       <c r="H8" s="1">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8619</v>
+      </c>
+      <c r="J8" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>0.99823840281855514</v>
+      </c>
+      <c r="K8" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>86.038167938931281</v>
+      </c>
+      <c r="L8" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8532.961832061068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45918</v>
       </c>
@@ -1223,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -1240,8 +1220,24 @@
       <c r="H9" s="1">
         <v>41.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9449.1</v>
+      </c>
+      <c r="J9" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.7601864021985887</v>
+      </c>
+      <c r="K9" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>260.81277333014685</v>
+      </c>
+      <c r="L9" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9188.2872266698541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45918</v>
       </c>
@@ -1249,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1266,8 +1262,24 @@
       <c r="H10" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9356</v>
+      </c>
+      <c r="J10" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.5641025641025625</v>
+      </c>
+      <c r="K10" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>239.89743589743574</v>
+      </c>
+      <c r="L10" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9116.1025641025644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45918</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1292,8 +1304,24 @@
       <c r="H11" s="1">
         <v>42.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9679</v>
+      </c>
+      <c r="J11" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.3322227510709199</v>
+      </c>
+      <c r="K11" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>225.73584007615435</v>
+      </c>
+      <c r="L11" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9453.264159923845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45918</v>
       </c>
@@ -1301,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -1318,8 +1346,24 @@
       <c r="H12" s="1">
         <v>42.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10048.6</v>
+      </c>
+      <c r="J12" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>4.1036194165355289</v>
+      </c>
+      <c r="K12" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>412.35630068998915</v>
+      </c>
+      <c r="L12" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9636.2436993100109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45918</v>
       </c>
@@ -1327,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1344,8 +1388,24 @@
       <c r="H13" s="1">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9682</v>
+      </c>
+      <c r="J13" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>4.2045316854477148</v>
+      </c>
+      <c r="K13" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>407.0827577850477</v>
+      </c>
+      <c r="L13" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9274.9172422149531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45918</v>
       </c>
@@ -1353,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1370,8 +1430,24 @@
       <c r="H14" s="1">
         <v>44.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9553</v>
+      </c>
+      <c r="J14" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>3.6769138034960824</v>
+      </c>
+      <c r="K14" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>351.25557564798072</v>
+      </c>
+      <c r="L14" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9201.7444243520185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45918</v>
       </c>
@@ -1379,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -1396,8 +1472,24 @@
       <c r="H15" s="1">
         <v>43.68</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9384</v>
+      </c>
+      <c r="J15" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>1.907808982106884</v>
+      </c>
+      <c r="K15" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>179.02879488091</v>
+      </c>
+      <c r="L15" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9204.9712051190909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45918</v>
       </c>
@@ -1405,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1422,8 +1514,24 @@
       <c r="H16" s="1">
         <v>42.89</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9490.2999999999993</v>
+      </c>
+      <c r="J16" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>1.9440493124703657</v>
+      </c>
+      <c r="K16" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>184.49611190137512</v>
+      </c>
+      <c r="L16" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9305.8038880986242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45918</v>
       </c>
@@ -1431,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1448,8 +1556,24 @@
       <c r="H17" s="1">
         <v>44.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8280</v>
+      </c>
+      <c r="J17" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-3.6306588973554463</v>
+      </c>
+      <c r="K17" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-300.61855670103091</v>
+      </c>
+      <c r="L17" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8580.6185567010307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45918</v>
       </c>
@@ -1457,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1474,8 +1598,24 @@
       <c r="H18" s="1">
         <v>41.61</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10882.5</v>
+      </c>
+      <c r="J18" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>3.1298716872526673</v>
+      </c>
+      <c r="K18" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>340.60828636527151</v>
+      </c>
+      <c r="L18" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10541.891713634728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45918</v>
       </c>
@@ -1483,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1500,8 +1640,24 @@
       <c r="H19" s="1">
         <v>42.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10765</v>
+      </c>
+      <c r="J19" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>4.1288291560721637</v>
+      </c>
+      <c r="K19" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>444.46845865116842</v>
+      </c>
+      <c r="L19" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10320.531541348832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45918</v>
       </c>
@@ -1509,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -1526,8 +1682,24 @@
       <c r="H20" s="1">
         <v>42.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9569</v>
+      </c>
+      <c r="J20" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>3.3033033033033035</v>
+      </c>
+      <c r="K20" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>316.0930930930931</v>
+      </c>
+      <c r="L20" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9252.9069069069064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45918</v>
       </c>
@@ -1535,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -1552,8 +1724,24 @@
       <c r="H21" s="1">
         <v>44.76</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10067</v>
+      </c>
+      <c r="J21" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-2.7039257834596682</v>
+      </c>
+      <c r="K21" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-272.2042086208848</v>
+      </c>
+      <c r="L21" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10339.204208620884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45918</v>
       </c>
@@ -1561,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1578,8 +1766,24 @@
       <c r="H22" s="1">
         <v>44.28</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8814</v>
+      </c>
+      <c r="J22" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.8708133971291852</v>
+      </c>
+      <c r="K22" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>253.03349282296637</v>
+      </c>
+      <c r="L22" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8560.9665071770341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45918</v>
       </c>
@@ -1587,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1604,8 +1808,24 @@
       <c r="H23" s="1">
         <v>43.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9263</v>
+      </c>
+      <c r="J23" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>5.1087753605475434</v>
+      </c>
+      <c r="K23" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>473.22586164751897</v>
+      </c>
+      <c r="L23" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8789.7741383524808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45918</v>
       </c>
@@ -1613,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1630,8 +1850,24 @@
       <c r="H24" s="1">
         <v>42.27</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10860</v>
+      </c>
+      <c r="J24" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>6.7659838609559264</v>
+      </c>
+      <c r="K24" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>734.78584729981367</v>
+      </c>
+      <c r="L24" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10125.214152700186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45918</v>
       </c>
@@ -1639,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1656,8 +1892,24 @@
       <c r="H25" s="1">
         <v>42.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9035</v>
+      </c>
+      <c r="J25" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>3.166986564299425</v>
+      </c>
+      <c r="K25" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>286.13723608445309</v>
+      </c>
+      <c r="L25" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8748.8627639155475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45918</v>
       </c>
@@ -1665,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1682,8 +1934,24 @@
       <c r="H26" s="1">
         <v>43.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8553</v>
+      </c>
+      <c r="J26" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>3.0927835051546371</v>
+      </c>
+      <c r="K26" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>264.52577319587613</v>
+      </c>
+      <c r="L26" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8288.4742268041246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45918</v>
       </c>
@@ -1691,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1708,8 +1976,24 @@
       <c r="H27" s="1">
         <v>42.33</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8866</v>
+      </c>
+      <c r="J27" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>1.9319663387460007</v>
+      </c>
+      <c r="K27" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>171.28813559322043</v>
+      </c>
+      <c r="L27" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8694.7118644067796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45918</v>
       </c>
@@ -1717,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -1734,8 +2018,24 @@
       <c r="H28" s="1">
         <v>42.36</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9736</v>
+      </c>
+      <c r="J28" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>4.9804687499999982</v>
+      </c>
+      <c r="K28" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>484.89843749999983</v>
+      </c>
+      <c r="L28" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9251.1015625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45918</v>
       </c>
@@ -1743,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
@@ -1760,8 +2060,24 @@
       <c r="H29" s="1">
         <v>44.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8489</v>
+      </c>
+      <c r="J29" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>5.3663317814261191</v>
+      </c>
+      <c r="K29" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>455.54790492526331</v>
+      </c>
+      <c r="L29" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8033.4520950747365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>45918</v>
       </c>
@@ -1769,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1786,8 +2102,24 @@
       <c r="H30" s="1">
         <v>43.04</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8732</v>
+      </c>
+      <c r="J30" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>0.99823840281855514</v>
+      </c>
+      <c r="K30" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>87.166177334116242</v>
+      </c>
+      <c r="L30" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8644.8338226658834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45918</v>
       </c>
@@ -1795,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -1812,8 +2144,24 @@
       <c r="H31" s="1">
         <v>42.78</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9928</v>
+      </c>
+      <c r="J31" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>3.9023800894043745</v>
+      </c>
+      <c r="K31" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>387.42829527606625</v>
+      </c>
+      <c r="L31" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9540.5717047239341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>45918</v>
       </c>
@@ -1821,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -1838,8 +2186,24 @@
       <c r="H32" s="1">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9865</v>
+      </c>
+      <c r="J32" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>3.9526169466940639</v>
+      </c>
+      <c r="K32" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>389.92566179136941</v>
+      </c>
+      <c r="L32" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9475.0743382086312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>45918</v>
       </c>
@@ -1847,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -1864,8 +2228,24 @@
       <c r="H33" s="1">
         <v>43.81</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9628</v>
+      </c>
+      <c r="J33" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.4175300702631906</v>
+      </c>
+      <c r="K33" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>232.75979516493996</v>
+      </c>
+      <c r="L33" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9395.2402048350596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>45917</v>
       </c>
@@ -1873,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1890,8 +2270,24 @@
       <c r="H34" s="1">
         <v>45.87</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8418.6</v>
+      </c>
+      <c r="J34" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.42838948709042401</v>
+      </c>
+      <c r="K34" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-36.064397360194441</v>
+      </c>
+      <c r="L34" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8454.6643973601949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>45917</v>
       </c>
@@ -1899,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -1916,8 +2312,24 @@
       <c r="H35" s="1">
         <v>44.01</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9232</v>
+      </c>
+      <c r="J35" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>7.7964402105790906</v>
+      </c>
+      <c r="K35" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>719.76736024066167</v>
+      </c>
+      <c r="L35" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8512.2326397593388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>45917</v>
       </c>
@@ -1925,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -1942,8 +2354,24 @@
       <c r="H36" s="1">
         <v>44.64</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8969.6</v>
+      </c>
+      <c r="J36" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>6.3435142821812764</v>
+      </c>
+      <c r="K36" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>568.98785705453179</v>
+      </c>
+      <c r="L36" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8400.6121429454688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>45917</v>
       </c>
@@ -1951,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
@@ -1968,8 +2396,24 @@
       <c r="H37" s="1">
         <v>45.88</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9809.1</v>
+      </c>
+      <c r="J37" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>6.8190286920879375</v>
+      </c>
+      <c r="K37" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>668.88534343559786</v>
+      </c>
+      <c r="L37" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9140.2146565644034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>45917</v>
       </c>
@@ -1977,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1994,8 +2438,24 @@
       <c r="H38" s="1">
         <v>43.94</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8224.7999999999993</v>
+      </c>
+      <c r="J38" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>4.1414386049891032</v>
+      </c>
+      <c r="K38" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>340.62504238314375</v>
+      </c>
+      <c r="L38" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7884.1749576168559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>45917</v>
       </c>
@@ -2003,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -2020,8 +2480,24 @@
       <c r="H39" s="1">
         <v>47.36</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9434.1</v>
+      </c>
+      <c r="J39" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>6.7394811964751158</v>
+      </c>
+      <c r="K39" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>635.80939555665896</v>
+      </c>
+      <c r="L39" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8798.2906044433421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>45917</v>
       </c>
@@ -2029,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -2046,8 +2522,24 @@
       <c r="H40" s="1">
         <v>45.65</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9094.4</v>
+      </c>
+      <c r="J40" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.16252612026932967</v>
+      </c>
+      <c r="K40" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-14.780775481773917</v>
+      </c>
+      <c r="L40" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9109.1807754817728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>45917</v>
       </c>
@@ -2055,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -2072,8 +2564,24 @@
       <c r="H41" s="1">
         <v>48.64</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I41" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9997.7000000000007</v>
+      </c>
+      <c r="J41" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>6.8721262582328837</v>
+      </c>
+      <c r="K41" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>687.05456691934899</v>
+      </c>
+      <c r="L41" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9310.6454330806519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>45917</v>
       </c>
@@ -2081,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -2098,8 +2606,24 @@
       <c r="H42" s="1">
         <v>46.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9590.2000000000007</v>
+      </c>
+      <c r="J42" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>6.2121773496356694</v>
+      </c>
+      <c r="K42" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>595.76023218476007</v>
+      </c>
+      <c r="L42" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8994.43976781524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>45917</v>
       </c>
@@ -2107,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -2124,8 +2648,24 @@
       <c r="H43" s="1">
         <v>45.61</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10381.199999999999</v>
+      </c>
+      <c r="J43" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>8.108108108108107</v>
+      </c>
+      <c r="K43" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>841.71891891891869</v>
+      </c>
+      <c r="L43" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9539.4810810810795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>45917</v>
       </c>
@@ -2133,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -2150,8 +2690,24 @@
       <c r="H44" s="1">
         <v>46.34</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9748.6</v>
+      </c>
+      <c r="J44" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>5.9504743131698881</v>
+      </c>
+      <c r="K44" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>580.08793889367973</v>
+      </c>
+      <c r="L44" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9168.5120611063212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>45917</v>
       </c>
@@ -2159,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -2176,8 +2732,24 @@
       <c r="H45" s="1">
         <v>45.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8689.1</v>
+      </c>
+      <c r="J45" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>4.0784218806728809</v>
+      </c>
+      <c r="K45" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>354.37815563354729</v>
+      </c>
+      <c r="L45" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8334.7218443664533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45917</v>
       </c>
@@ -2185,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -2202,8 +2774,24 @@
       <c r="H46" s="1">
         <v>44.65</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7633.2000000000007</v>
+      </c>
+      <c r="J46" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>4.1288291560721637</v>
+      </c>
+      <c r="K46" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>315.16178714130047</v>
+      </c>
+      <c r="L46" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7318.0382128587007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>45917</v>
       </c>
@@ -2211,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -2228,8 +2816,24 @@
       <c r="H47" s="1">
         <v>45.93</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8299.5</v>
+      </c>
+      <c r="J47" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.8152757164059823</v>
+      </c>
+      <c r="K47" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-150.65880808311451</v>
+      </c>
+      <c r="L47" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8450.1588080831152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>45917</v>
       </c>
@@ -2237,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -2254,8 +2858,24 @@
       <c r="H48" s="1">
         <v>47.03</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10358.699999999999</v>
+      </c>
+      <c r="J48" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.0892687559354224</v>
+      </c>
+      <c r="K48" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>216.42108262108258</v>
+      </c>
+      <c r="L48" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10142.278917378917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>45917</v>
       </c>
@@ -2263,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1">
         <v>4</v>
@@ -2280,8 +2900,24 @@
       <c r="H49" s="1">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10093.4</v>
+      </c>
+      <c r="J49" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>7.8640411388435965</v>
+      </c>
+      <c r="K49" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>793.74912830803953</v>
+      </c>
+      <c r="L49" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9299.6508716919598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>45919</v>
       </c>
@@ -2289,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -2306,8 +2942,24 @@
       <c r="H50" s="1">
         <v>43.81</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7935</v>
+      </c>
+      <c r="J50" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-3.0439684329199541</v>
+      </c>
+      <c r="K50" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-241.53889515219834</v>
+      </c>
+      <c r="L50" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8176.5388951521982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>45919</v>
       </c>
@@ -2315,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2332,8 +2984,24 @@
       <c r="H51" s="1">
         <v>44.49</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7515</v>
+      </c>
+      <c r="J51" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.9272436993955975</v>
+      </c>
+      <c r="K51" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-144.83236400957915</v>
+      </c>
+      <c r="L51" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7659.8323640095796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>45919</v>
       </c>
@@ -2341,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -2358,8 +3026,24 @@
       <c r="H52" s="1">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8020</v>
+      </c>
+      <c r="J52" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>0.92712122990259249</v>
+      </c>
+      <c r="K52" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>74.355122638187922</v>
+      </c>
+      <c r="L52" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7945.6448773618122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>45919</v>
       </c>
@@ -2367,7 +3051,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
@@ -2384,8 +3068,24 @@
       <c r="H53" s="1">
         <v>44.19</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8638</v>
+      </c>
+      <c r="J53" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.1509346336932553</v>
+      </c>
+      <c r="K53" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-13.037733658423392</v>
+      </c>
+      <c r="L53" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8651.0377336584243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>45919</v>
       </c>
@@ -2393,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -2410,8 +3110,24 @@
       <c r="H54" s="1">
         <v>44.69</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6779</v>
+      </c>
+      <c r="J54" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>0.23310023310023228</v>
+      </c>
+      <c r="K54" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>15.801864801864747</v>
+      </c>
+      <c r="L54" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>6763.1981351981349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>45919</v>
       </c>
@@ -2419,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
@@ -2436,8 +3152,24 @@
       <c r="H55" s="1">
         <v>43.71</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8357</v>
+      </c>
+      <c r="J55" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.58952722228644061</v>
+      </c>
+      <c r="K55" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-49.266789966477845</v>
+      </c>
+      <c r="L55" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8406.2667899664775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>45919</v>
       </c>
@@ -2445,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -2462,8 +3194,24 @@
       <c r="H56" s="1">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7580</v>
+      </c>
+      <c r="J56" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.0014964890065605</v>
+      </c>
+      <c r="K56" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-75.913433866697289</v>
+      </c>
+      <c r="L56" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7655.9134338666972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>45919</v>
       </c>
@@ -2471,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -2488,8 +3236,24 @@
       <c r="H57" s="1">
         <v>43.82</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8084</v>
+      </c>
+      <c r="J57" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-3.8569032979318045</v>
+      </c>
+      <c r="K57" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-311.79206260480709</v>
+      </c>
+      <c r="L57" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8395.7920626048071</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>45919</v>
       </c>
@@ -2497,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -2514,8 +3278,24 @@
       <c r="H58" s="1">
         <v>44.46</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7214.5</v>
+      </c>
+      <c r="J58" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.9160583941605835</v>
+      </c>
+      <c r="K58" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-138.23403284671531</v>
+      </c>
+      <c r="L58" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7352.7340328467153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>45919</v>
       </c>
@@ -2523,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
@@ -2540,8 +3320,24 @@
       <c r="H59" s="1">
         <v>44.31</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6684</v>
+      </c>
+      <c r="J59" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.1380618461892176</v>
+      </c>
+      <c r="K59" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-76.068053799287298</v>
+      </c>
+      <c r="L59" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>6760.0680537992876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>45919</v>
       </c>
@@ -2549,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -2566,8 +3362,24 @@
       <c r="H60" s="1">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6448.0999999999995</v>
+      </c>
+      <c r="J60" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.8824871648602397</v>
+      </c>
+      <c r="K60" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-121.38465487735311</v>
+      </c>
+      <c r="L60" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>6569.484654877353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>45919</v>
       </c>
@@ -2575,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
@@ -2592,8 +3404,24 @@
       <c r="H61" s="1">
         <v>43.89</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6886</v>
+      </c>
+      <c r="J61" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-3.5117244474363298</v>
+      </c>
+      <c r="K61" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-241.81734545046567</v>
+      </c>
+      <c r="L61" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7127.8173454504658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>45919</v>
       </c>
@@ -2601,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -2618,8 +3446,24 @@
       <c r="H62" s="1">
         <v>43.94</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7774.5</v>
+      </c>
+      <c r="J62" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.88740348046559825</v>
+      </c>
+      <c r="K62" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-68.991183588797938</v>
+      </c>
+      <c r="L62" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7843.4911835887979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>45919</v>
       </c>
@@ -2627,7 +3471,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -2644,8 +3488,24 @@
       <c r="H63" s="1">
         <v>43.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8580</v>
+      </c>
+      <c r="J63" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>0.77337707991563176</v>
+      </c>
+      <c r="K63" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>66.355753456761207</v>
+      </c>
+      <c r="L63" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8513.6442465432392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>45919</v>
       </c>
@@ -2653,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -2670,8 +3530,24 @@
       <c r="H64" s="1">
         <v>44.45</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I64" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6023</v>
+      </c>
+      <c r="J64" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-2.5164361822715944</v>
+      </c>
+      <c r="K64" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-151.56495125821814</v>
+      </c>
+      <c r="L64" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>6174.5649512582186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>45919</v>
       </c>
@@ -2679,7 +3555,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -2696,8 +3572,24 @@
       <c r="H65" s="1">
         <v>44.28</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I65" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7323.8</v>
+      </c>
+      <c r="J65" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-4.146232724030317</v>
+      </c>
+      <c r="K65" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-303.66179224253233</v>
+      </c>
+      <c r="L65" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7627.4617922425323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>45919</v>
       </c>
@@ -2705,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -2722,8 +3614,24 @@
       <c r="H66" s="1">
         <v>45.01</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9185</v>
+      </c>
+      <c r="J66" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-3.867650346523587</v>
+      </c>
+      <c r="K66" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-355.24368432819142</v>
+      </c>
+      <c r="L66" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9540.2436843281921</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>45919</v>
       </c>
@@ -2731,7 +3639,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -2748,8 +3656,24 @@
       <c r="H67" s="1">
         <v>44.26</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I67" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10015</v>
+      </c>
+      <c r="J67" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>1.9924098671726753</v>
+      </c>
+      <c r="K67" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>199.53984819734342</v>
+      </c>
+      <c r="L67" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9815.4601518026575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>45919</v>
       </c>
@@ -2757,7 +3681,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -2774,8 +3698,24 @@
       <c r="H68" s="1">
         <v>45.38</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I68" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7665</v>
+      </c>
+      <c r="J68" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.4213663457129762</v>
+      </c>
+      <c r="K68" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-108.94773039889962</v>
+      </c>
+      <c r="L68" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7773.9477303988997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>45919</v>
       </c>
@@ -2783,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>4</v>
@@ -2800,8 +3740,24 @@
       <c r="H69" s="1">
         <v>43.88</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I69" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8998.6</v>
+      </c>
+      <c r="J69" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.80738177623990692</v>
+      </c>
+      <c r="K69" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-72.653056516724263</v>
+      </c>
+      <c r="L69" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9071.2530565167253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>45919</v>
       </c>
@@ -2809,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -2826,8 +3782,24 @@
       <c r="H70" s="1">
         <v>45.91</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I70" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6247</v>
+      </c>
+      <c r="J70" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-4.2849193099610456</v>
+      </c>
+      <c r="K70" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-267.67890929326654</v>
+      </c>
+      <c r="L70" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>6514.6789092932668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>45919</v>
       </c>
@@ -2835,7 +3807,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
@@ -2852,8 +3824,24 @@
       <c r="H71" s="1">
         <v>44.05</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I71" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10993</v>
+      </c>
+      <c r="J71" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>1.666863695472278</v>
+      </c>
+      <c r="K71" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>183.23832604326751</v>
+      </c>
+      <c r="L71" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10809.761673956733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>45919</v>
       </c>
@@ -2861,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -2878,8 +3866,24 @@
       <c r="H72" s="1">
         <v>43.42</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8805.1</v>
+      </c>
+      <c r="J72" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>0.27985074626865697</v>
+      </c>
+      <c r="K72" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>24.641138059701515</v>
+      </c>
+      <c r="L72" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8780.4588619402984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>45919</v>
       </c>
@@ -2887,7 +3891,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1">
         <v>4</v>
@@ -2904,8 +3908,24 @@
       <c r="H73" s="1">
         <v>45.93</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6760</v>
+      </c>
+      <c r="J73" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>2.3261223540357725E-2</v>
+      </c>
+      <c r="K73" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>1.5724587113281823</v>
+      </c>
+      <c r="L73" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>6758.4275412886718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>45919</v>
       </c>
@@ -2913,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2930,8 +3950,24 @@
       <c r="H74" s="1">
         <v>45.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I74" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7608</v>
+      </c>
+      <c r="J74" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-1.7255170837618554</v>
+      </c>
+      <c r="K74" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-131.27733973260194</v>
+      </c>
+      <c r="L74" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7739.2773397326018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>45919</v>
       </c>
@@ -2939,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
         <v>2</v>
@@ -2956,8 +3992,24 @@
       <c r="H75" s="1">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I75" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9014.4</v>
+      </c>
+      <c r="J75" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.5205320994794671</v>
+      </c>
+      <c r="K75" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-46.922845575477076</v>
+      </c>
+      <c r="L75" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9061.3228455754761</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>45919</v>
       </c>
@@ -2965,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -2982,8 +4034,24 @@
       <c r="H76" s="1">
         <v>44.86</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I76" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>9723</v>
+      </c>
+      <c r="J76" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.70430666204826164</v>
+      </c>
+      <c r="K76" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-68.479736750952483</v>
+      </c>
+      <c r="L76" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>9791.4797367509527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>45919</v>
       </c>
@@ -2991,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>4</v>
@@ -3008,8 +4076,24 @@
       <c r="H77" s="1">
         <v>44.89</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I77" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10120</v>
+      </c>
+      <c r="J77" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-0.62398890686387709</v>
+      </c>
+      <c r="K77" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-63.147677374624365</v>
+      </c>
+      <c r="L77" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10183.147677374624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>45919</v>
       </c>
@@ -3017,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -3034,8 +4118,24 @@
       <c r="H78" s="1">
         <v>50.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I78" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>7250.8</v>
+      </c>
+      <c r="J78" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-2.9345372460496608</v>
+      </c>
+      <c r="K78" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-212.7774266365688</v>
+      </c>
+      <c r="L78" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7463.5774266365688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>45919</v>
       </c>
@@ -3043,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>2</v>
@@ -3060,8 +4160,24 @@
       <c r="H79" s="1">
         <v>44.37</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>8317</v>
+      </c>
+      <c r="J79" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-2.0947176684881601</v>
+      </c>
+      <c r="K79" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-174.21766848816026</v>
+      </c>
+      <c r="L79" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>8491.2176684881597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>45919</v>
       </c>
@@ -3069,7 +4185,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -3086,8 +4202,24 @@
       <c r="H80" s="1">
         <v>44.65</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I80" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>10155</v>
+      </c>
+      <c r="J80" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-2.7369373444921963</v>
+      </c>
+      <c r="K80" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-277.93598733318254</v>
+      </c>
+      <c r="L80" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>10432.935987333183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>45919</v>
       </c>
@@ -3095,7 +4227,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1">
         <v>4</v>
@@ -3112,11 +4244,28 @@
       <c r="H81" s="1">
         <v>45.52</v>
       </c>
+      <c r="I81" s="1">
+        <f>Tabla25[[#This Row],[Weight_g]]*10000/1000</f>
+        <v>6981</v>
+      </c>
+      <c r="J81" s="5">
+        <f>100*(Tabla25[[#This Row],[Humidity]]-14)/(100-Tabla25[[#This Row],[Humidity]])</f>
+        <v>-2.416884148417112</v>
+      </c>
+      <c r="K81" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]*Tabla25[[#This Row],[Weight_reduction_prop]]/100</f>
+        <v>-168.72268240099859</v>
+      </c>
+      <c r="L81" s="3">
+        <f>Tabla25[[#This Row],[Weight_kg/ha]]-Tabla25[[#This Row],[Weight_reduction]]</f>
+        <v>7149.7226824009986</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>